--- a/tests.xlsx
+++ b/tests.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ \Лаба 6\Решение\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6698B54B-E73E-4DBA-BDCE-80190D0C20ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-13236" yWindow="7080" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="num1" sheetId="1" r:id="rId1"/>
+    <sheet name="num2" sheetId="2" r:id="rId2"/>
+    <sheet name="num3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,8 +26,46 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>слог</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зп суммарная </t>
+  </si>
+  <si>
+    <t>стоимость пк</t>
+  </si>
+  <si>
+    <t>можем купить?</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>i\j</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +99,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +376,590 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>SUM(C2:C12)</f>
+        <v>9.9589285714285722</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <f>($B$2^D2)/FACT(D2)</f>
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <f t="shared" ref="C3:C12" si="0">($B$2^D3)/FACT(D3)</f>
+        <v>4.5</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <f>($B$2^D4)/FACT(D4)</f>
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.43392857142857144</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399F41C8-4B92-4144-8799-3D21A625A7ED}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>D2</f>
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>40000</v>
+      </c>
+      <c r="C2">
+        <f>IF(A2&gt;B2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>A2+D3</f>
+        <v>20000</v>
+      </c>
+      <c r="B3">
+        <f>B2*1.0315</f>
+        <v>41260</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C6" si="0">IF(A3&gt;B3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>D2</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>A3+D4</f>
+        <v>30000</v>
+      </c>
+      <c r="B4">
+        <f>B3</f>
+        <v>41260</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>D3</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>A4+D5</f>
+        <v>40500</v>
+      </c>
+      <c r="B5">
+        <f>B4*1.0315</f>
+        <v>42559.69</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>D4*1.05</f>
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>A5+D6</f>
+        <v>51000</v>
+      </c>
+      <c r="B6">
+        <f>B5*0.977</f>
+        <v>41580.817130000003</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f>D5</f>
+        <v>10500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7204C06B-76F5-4832-83C0-F6080CBCECF2}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>($A2+B$1)^2</f>
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:I9" si="0">($A2+C$1)^2</f>
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="K2">
+        <f>SUM(B2:I9)</f>
+        <v>5856</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B9" si="1">($A3+B$1)^2</f>
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>